--- a/activity/Population/PoblacionDANE.xlsx
+++ b/activity/Population/PoblacionDANE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A8588-555A-4EE9-BEAC-033B0092C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE6B33-0CE1-4DF5-AE01-7E4E00396D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39969088940106778"/>
-          <c:y val="1.2110364517204108E-2"/>
+          <c:x val="0.36959934650012266"/>
+          <c:y val="1.009280224592333E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1658,6 +1658,7 @@
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3952,7 +3953,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>DANE - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</c:v>
+              <c:v>DANE - Población censal Municipio y población proyectada a 50 años para el ajuste seleccionado</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -3991,9 +3992,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.094480305121253E-2"/>
-          <c:y val="6.9351170704609222E-2"/>
+          <c:y val="8.7516772934320683E-2"/>
           <c:w val="0.88538511457614932"/>
-          <c:h val="0.85574493143823971"/>
+          <c:h val="0.83757935109742632"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4553,8 +4554,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6303841988887686E-2"/>
-          <c:y val="8.4298645036057371E-2"/>
+          <c:x val="8.837951387606352E-2"/>
+          <c:y val="9.84273849352469E-2"/>
           <c:w val="7.3021512565183994E-2"/>
           <c:h val="4.7994344465164852E-2"/>
         </c:manualLayout>
@@ -6299,7 +6300,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7719926C-FDFD-4B6F-9591-D15E2C7B4756}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6323,7 +6324,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6335,7 +6336,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12239329" cy="6294783"/>
+    <xdr:ext cx="12229681" cy="6288593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7835,8 +7836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -8865,8 +8866,8 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="str">
-        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," para el ajuste seleccionado")</f>
-        <v>DANE - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</v>
+        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," años para el ajuste seleccionado")</f>
+        <v>DANE - Población censal Municipio y población proyectada a 50 años para el ajuste seleccionado</v>
       </c>
       <c r="D33" s="13"/>
     </row>
